--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H2">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I2">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J2">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.2964488405676</v>
+        <v>14.81590833333333</v>
       </c>
       <c r="N2">
-        <v>13.2964488405676</v>
+        <v>44.447725</v>
       </c>
       <c r="O2">
-        <v>0.2461943713167931</v>
+        <v>0.2626950900477981</v>
       </c>
       <c r="P2">
-        <v>0.2461943713167931</v>
+        <v>0.2626950900477981</v>
       </c>
       <c r="Q2">
-        <v>1295.536363044857</v>
+        <v>1616.591236821322</v>
       </c>
       <c r="R2">
-        <v>1295.536363044857</v>
+        <v>14549.3211313919</v>
       </c>
       <c r="S2">
-        <v>0.06982602756004404</v>
+        <v>0.07957215229770168</v>
       </c>
       <c r="T2">
-        <v>0.06982602756004404</v>
+        <v>0.07957215229770168</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H3">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I3">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J3">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.3288779628587</v>
+        <v>34.77831566666666</v>
       </c>
       <c r="N3">
-        <v>34.3288779628587</v>
+        <v>104.334947</v>
       </c>
       <c r="O3">
-        <v>0.6356265969520423</v>
+        <v>0.6166407458941315</v>
       </c>
       <c r="P3">
-        <v>0.6356265969520423</v>
+        <v>0.6166407458941315</v>
       </c>
       <c r="Q3">
-        <v>3344.826143934096</v>
+        <v>3794.72652457279</v>
       </c>
       <c r="R3">
-        <v>3344.826143934096</v>
+        <v>34152.53872115511</v>
       </c>
       <c r="S3">
-        <v>0.1802773964298301</v>
+        <v>0.1867847295369253</v>
       </c>
       <c r="T3">
-        <v>0.1802773964298301</v>
+        <v>0.1867847295369253</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H4">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I4">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J4">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.38260509790161</v>
+        <v>6.805415333333333</v>
       </c>
       <c r="N4">
-        <v>6.38260509790161</v>
+        <v>20.416246</v>
       </c>
       <c r="O4">
-        <v>0.1181790317311646</v>
+        <v>0.1206641640580704</v>
       </c>
       <c r="P4">
-        <v>0.1181790317311646</v>
+        <v>0.1206641640580704</v>
       </c>
       <c r="Q4">
-        <v>621.88762536795</v>
+        <v>742.5514887969716</v>
       </c>
       <c r="R4">
-        <v>621.88762536795</v>
+        <v>6682.963399172745</v>
       </c>
       <c r="S4">
-        <v>0.03351811937268587</v>
+        <v>0.03655000646398309</v>
       </c>
       <c r="T4">
-        <v>0.03351811937268587</v>
+        <v>0.03655000646398309</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H5">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I5">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J5">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.2964488405676</v>
+        <v>14.81590833333333</v>
       </c>
       <c r="N5">
-        <v>13.2964488405676</v>
+        <v>44.447725</v>
       </c>
       <c r="O5">
-        <v>0.2461943713167931</v>
+        <v>0.2626950900477981</v>
       </c>
       <c r="P5">
-        <v>0.2461943713167931</v>
+        <v>0.2626950900477981</v>
       </c>
       <c r="Q5">
-        <v>2984.551820633301</v>
+        <v>3372.602630500094</v>
       </c>
       <c r="R5">
-        <v>2984.551820633301</v>
+        <v>30353.42367450085</v>
       </c>
       <c r="S5">
-        <v>0.1608595510141654</v>
+        <v>0.1660068692945937</v>
       </c>
       <c r="T5">
-        <v>0.1608595510141654</v>
+        <v>0.1660068692945937</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H6">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I6">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J6">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.3288779628587</v>
+        <v>34.77831566666666</v>
       </c>
       <c r="N6">
-        <v>34.3288779628587</v>
+        <v>104.334947</v>
       </c>
       <c r="O6">
-        <v>0.6356265969520423</v>
+        <v>0.6166407458941315</v>
       </c>
       <c r="P6">
-        <v>0.6356265969520423</v>
+        <v>0.6166407458941315</v>
       </c>
       <c r="Q6">
-        <v>7705.539761244602</v>
+        <v>7916.722772769313</v>
       </c>
       <c r="R6">
-        <v>7705.539761244602</v>
+        <v>71250.50495492382</v>
       </c>
       <c r="S6">
-        <v>0.4153084753785882</v>
+        <v>0.3896783898273165</v>
       </c>
       <c r="T6">
-        <v>0.4153084753785882</v>
+        <v>0.3896783898273165</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H7">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I7">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J7">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.38260509790161</v>
+        <v>6.805415333333333</v>
       </c>
       <c r="N7">
-        <v>6.38260509790161</v>
+        <v>20.416246</v>
       </c>
       <c r="O7">
-        <v>0.1181790317311646</v>
+        <v>0.1206641640580704</v>
       </c>
       <c r="P7">
-        <v>0.1181790317311646</v>
+        <v>0.1206641640580704</v>
       </c>
       <c r="Q7">
-        <v>1432.654379657092</v>
+        <v>1549.143065579555</v>
       </c>
       <c r="R7">
-        <v>1432.654379657092</v>
+        <v>13942.287590216</v>
       </c>
       <c r="S7">
-        <v>0.0772163306654251</v>
+        <v>0.0762522059612336</v>
       </c>
       <c r="T7">
-        <v>0.0772163306654251</v>
+        <v>0.0762522059612336</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H8">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I8">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J8">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.2964488405676</v>
+        <v>14.81590833333333</v>
       </c>
       <c r="N8">
-        <v>13.2964488405676</v>
+        <v>44.447725</v>
       </c>
       <c r="O8">
-        <v>0.2461943713167931</v>
+        <v>0.2626950900477981</v>
       </c>
       <c r="P8">
-        <v>0.2461943713167931</v>
+        <v>0.2626950900477981</v>
       </c>
       <c r="Q8">
-        <v>2.227025125634055</v>
+        <v>2.8827016526</v>
       </c>
       <c r="R8">
-        <v>2.227025125634055</v>
+        <v>25.9443148734</v>
       </c>
       <c r="S8">
-        <v>0.0001200308399171115</v>
+        <v>0.0001418928729197835</v>
       </c>
       <c r="T8">
-        <v>0.0001200308399171115</v>
+        <v>0.0001418928729197835</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H9">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I9">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J9">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.3288779628587</v>
+        <v>34.77831566666666</v>
       </c>
       <c r="N9">
-        <v>34.3288779628587</v>
+        <v>104.334947</v>
       </c>
       <c r="O9">
-        <v>0.6356265969520423</v>
+        <v>0.6166407458941315</v>
       </c>
       <c r="P9">
-        <v>0.6356265969520423</v>
+        <v>0.6166407458941315</v>
       </c>
       <c r="Q9">
-        <v>5.749751281323922</v>
+        <v>6.766747322631999</v>
       </c>
       <c r="R9">
-        <v>5.749751281323922</v>
+        <v>60.900725903688</v>
       </c>
       <c r="S9">
-        <v>0.000309896582516242</v>
+        <v>0.0003330740859237081</v>
       </c>
       <c r="T9">
-        <v>0.000309896582516242</v>
+        <v>0.0003330740859237081</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H10">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I10">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J10">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.38260509790161</v>
+        <v>6.805415333333333</v>
       </c>
       <c r="N10">
-        <v>6.38260509790161</v>
+        <v>20.416246</v>
       </c>
       <c r="O10">
-        <v>0.1181790317311646</v>
+        <v>0.1206641640580704</v>
       </c>
       <c r="P10">
-        <v>0.1181790317311646</v>
+        <v>0.1206641640580704</v>
       </c>
       <c r="Q10">
-        <v>1.069023924392441</v>
+        <v>1.324116050576</v>
       </c>
       <c r="R10">
-        <v>1.069023924392441</v>
+        <v>11.917044455184</v>
       </c>
       <c r="S10">
-        <v>5.761759849915415E-05</v>
+        <v>6.517588468649495E-05</v>
       </c>
       <c r="T10">
-        <v>5.761759849915415E-05</v>
+        <v>6.517588468649495E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H11">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I11">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J11">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.2964488405676</v>
+        <v>14.81590833333333</v>
       </c>
       <c r="N11">
-        <v>13.2964488405676</v>
+        <v>44.447725</v>
       </c>
       <c r="O11">
-        <v>0.2461943713167931</v>
+        <v>0.2626950900477981</v>
       </c>
       <c r="P11">
-        <v>0.2461943713167931</v>
+        <v>0.2626950900477981</v>
       </c>
       <c r="Q11">
-        <v>5.304150480107237</v>
+        <v>6.692370487347222</v>
       </c>
       <c r="R11">
-        <v>5.304150480107237</v>
+        <v>60.231334386125</v>
       </c>
       <c r="S11">
-        <v>0.000285879862712711</v>
+        <v>0.0003294130956066143</v>
       </c>
       <c r="T11">
-        <v>0.000285879862712711</v>
+        <v>0.0003294130956066143</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H12">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I12">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J12">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.3288779628587</v>
+        <v>34.77831566666666</v>
       </c>
       <c r="N12">
-        <v>34.3288779628587</v>
+        <v>104.334947</v>
       </c>
       <c r="O12">
-        <v>0.6356265969520423</v>
+        <v>0.6166407458941315</v>
       </c>
       <c r="P12">
-        <v>0.6356265969520423</v>
+        <v>0.6166407458941315</v>
       </c>
       <c r="Q12">
-        <v>13.69429813264839</v>
+        <v>15.70942315049278</v>
       </c>
       <c r="R12">
-        <v>13.69429813264839</v>
+        <v>141.384808354435</v>
       </c>
       <c r="S12">
-        <v>0.000738086916046414</v>
+        <v>0.0007732521264299137</v>
       </c>
       <c r="T12">
-        <v>0.000738086916046414</v>
+        <v>0.0007732521264299137</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H13">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I13">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J13">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.38260509790161</v>
+        <v>6.805415333333333</v>
       </c>
       <c r="N13">
-        <v>6.38260509790161</v>
+        <v>20.416246</v>
       </c>
       <c r="O13">
-        <v>0.1181790317311646</v>
+        <v>0.1206641640580704</v>
       </c>
       <c r="P13">
-        <v>0.1181790317311646</v>
+        <v>0.1206641640580704</v>
       </c>
       <c r="Q13">
-        <v>2.546115756191978</v>
+        <v>3.074017448425556</v>
       </c>
       <c r="R13">
-        <v>2.546115756191978</v>
+        <v>27.66615703583</v>
       </c>
       <c r="S13">
-        <v>0.0001372289918170114</v>
+        <v>0.000151309854340715</v>
       </c>
       <c r="T13">
-        <v>0.0001372289918170114</v>
+        <v>0.000151309854340715</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H14">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I14">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J14">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.2964488405676</v>
+        <v>14.81590833333333</v>
       </c>
       <c r="N14">
-        <v>13.2964488405676</v>
+        <v>44.447725</v>
       </c>
       <c r="O14">
-        <v>0.2461943713167931</v>
+        <v>0.2626950900477981</v>
       </c>
       <c r="P14">
-        <v>0.2461943713167931</v>
+        <v>0.2626950900477981</v>
       </c>
       <c r="Q14">
-        <v>10.21771197884182</v>
+        <v>11.45206005760833</v>
       </c>
       <c r="R14">
-        <v>10.21771197884182</v>
+        <v>103.068540518475</v>
       </c>
       <c r="S14">
-        <v>0.0005507079990857019</v>
+        <v>0.0005636954143202227</v>
       </c>
       <c r="T14">
-        <v>0.0005507079990857019</v>
+        <v>0.0005636954143202227</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H15">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I15">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J15">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>34.3288779628587</v>
+        <v>34.77831566666666</v>
       </c>
       <c r="N15">
-        <v>34.3288779628587</v>
+        <v>104.334947</v>
       </c>
       <c r="O15">
-        <v>0.6356265969520423</v>
+        <v>0.6166407458941315</v>
       </c>
       <c r="P15">
-        <v>0.6356265969520423</v>
+        <v>0.6166407458941315</v>
       </c>
       <c r="Q15">
-        <v>26.38017050922047</v>
+        <v>26.88214254275966</v>
       </c>
       <c r="R15">
-        <v>26.38017050922047</v>
+        <v>241.939282884837</v>
       </c>
       <c r="S15">
-        <v>0.001421822316655199</v>
+        <v>0.001323197782951624</v>
       </c>
       <c r="T15">
-        <v>0.001421822316655199</v>
+        <v>0.001323197782951624</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H16">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I16">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J16">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.38260509790161</v>
+        <v>6.805415333333333</v>
       </c>
       <c r="N16">
-        <v>6.38260509790161</v>
+        <v>20.416246</v>
       </c>
       <c r="O16">
-        <v>0.1181790317311646</v>
+        <v>0.1206641640580704</v>
       </c>
       <c r="P16">
-        <v>0.1181790317311646</v>
+        <v>0.1206641640580704</v>
       </c>
       <c r="Q16">
-        <v>4.904739705091227</v>
+        <v>5.260293419807333</v>
       </c>
       <c r="R16">
-        <v>4.904739705091227</v>
+        <v>47.342640778266</v>
       </c>
       <c r="S16">
-        <v>0.0002643526647277011</v>
+        <v>0.0002589231338124413</v>
       </c>
       <c r="T16">
-        <v>0.0002643526647277011</v>
+        <v>0.0002589231338124413</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H17">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I17">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J17">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.2964488405676</v>
+        <v>14.81590833333333</v>
       </c>
       <c r="N17">
-        <v>13.2964488405676</v>
+        <v>44.447725</v>
       </c>
       <c r="O17">
-        <v>0.2461943713167931</v>
+        <v>0.2626950900477981</v>
       </c>
       <c r="P17">
-        <v>0.2461943713167931</v>
+        <v>0.2626950900477981</v>
       </c>
       <c r="Q17">
-        <v>269.9977542770906</v>
+        <v>326.7036438970694</v>
       </c>
       <c r="R17">
-        <v>269.9977542770906</v>
+        <v>2940.332795073625</v>
       </c>
       <c r="S17">
-        <v>0.01455217404086817</v>
+        <v>0.01608106707265606</v>
       </c>
       <c r="T17">
-        <v>0.01455217404086817</v>
+        <v>0.01608106707265606</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H18">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I18">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J18">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>34.3288779628587</v>
+        <v>34.77831566666666</v>
       </c>
       <c r="N18">
-        <v>34.3288779628587</v>
+        <v>104.334947</v>
       </c>
       <c r="O18">
-        <v>0.6356265969520423</v>
+        <v>0.6166407458941315</v>
       </c>
       <c r="P18">
-        <v>0.6356265969520423</v>
+        <v>0.6166407458941315</v>
       </c>
       <c r="Q18">
-        <v>697.0823614606928</v>
+        <v>766.8920596207704</v>
       </c>
       <c r="R18">
-        <v>697.0823614606928</v>
+        <v>6902.028536586934</v>
       </c>
       <c r="S18">
-        <v>0.03757091932840607</v>
+        <v>0.03774810253458451</v>
       </c>
       <c r="T18">
-        <v>0.03757091932840607</v>
+        <v>0.03774810253458451</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H19">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I19">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J19">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.38260509790161</v>
+        <v>6.805415333333333</v>
       </c>
       <c r="N19">
-        <v>6.38260509790161</v>
+        <v>20.416246</v>
       </c>
       <c r="O19">
-        <v>0.1181790317311646</v>
+        <v>0.1206641640580704</v>
       </c>
       <c r="P19">
-        <v>0.1181790317311646</v>
+        <v>0.1206641640580704</v>
       </c>
       <c r="Q19">
-        <v>129.6052098973354</v>
+        <v>150.0653174689811</v>
       </c>
       <c r="R19">
-        <v>129.6052098973354</v>
+        <v>1350.58785722083</v>
       </c>
       <c r="S19">
-        <v>0.006985382438009797</v>
+        <v>0.007386542760014062</v>
       </c>
       <c r="T19">
-        <v>0.006985382438009797</v>
+        <v>0.007386542760014062</v>
       </c>
     </row>
   </sheetData>
